--- a/Data/Processed/Angiosperms/missing_powo_ipni/Sapotaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Sapotaceae.xlsx
@@ -652,7 +652,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -6418,7 +6418,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -7031,7 +7031,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -7041,7 +7041,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 57(Mém. 3e): 442. 1910 </t>
+          <t>Bull. Soc. Bot. France 57(Mém. 3e): 442. 1910</t>
         </is>
       </c>
       <c r="J117" t="b">
@@ -7109,7 +7109,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -7119,7 +7119,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 57(Mém. 3e): 439. 1910 </t>
+          <t>Bull. Soc. Bot. France 57(Mém. 3e): 439. 1910</t>
         </is>
       </c>
       <c r="J118" t="b">
@@ -7187,7 +7187,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -7197,7 +7197,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 57(Mém. 3e): 438. 1910 </t>
+          <t>Bull. Soc. Bot. France 57(Mém. 3e): 438. 1910</t>
         </is>
       </c>
       <c r="J119" t="b">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t xml:space="preserve">Neuen Arzneidrogen Pflanzenr. 200. 1897 </t>
+          <t>Neuen Arzneidrogen Pflanzenr. 200. 1897</t>
         </is>
       </c>
       <c r="J120" t="b">
@@ -7343,7 +7343,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -7353,7 +7353,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 57(Mém. 3e): 439. 1910 </t>
+          <t>Bull. Soc. Bot. France 57(Mém. 3e): 439. 1910</t>
         </is>
       </c>
       <c r="J121" t="b">
@@ -7421,7 +7421,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -7431,7 +7431,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pharm. Rundschau (Berlin &amp; New York) 6: 33. 1888 February, 1888 </t>
+          <t>Pharm. Rundschau (Berlin &amp; New York) 6: 33. 1888 February, 1888</t>
         </is>
       </c>
       <c r="J122" t="b">
@@ -7499,7 +7499,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -7509,7 +7509,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t xml:space="preserve">Notes Bot. Sapot. 66. 1891 </t>
+          <t>Notes Bot. Sapot. 66. 1891</t>
         </is>
       </c>
       <c r="J123" t="b">
@@ -7577,7 +7577,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -7587,7 +7587,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 57(Mém. 3e): 440. 1910 </t>
+          <t>Bull. Soc. Bot. France 57(Mém. 3e): 440. 1910</t>
         </is>
       </c>
       <c r="J124" t="b">
@@ -7655,7 +7655,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -7665,7 +7665,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vidensk. Meddel. Naturhist. Foren. Kjøbenhavn 1889: 4. </t>
+          <t>Vidensk. Meddel. Naturhist. Foren. Kjøbenhavn 1889: 4.</t>
         </is>
       </c>
       <c r="J125" t="b">
